--- a/output/StructureDefinition-Observation-Viral-Load.xlsx
+++ b/output/StructureDefinition-Observation-Viral-Load.xlsx
@@ -355,7 +355,7 @@
     <t>estAge</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/VL-reason}
+    <t xml:space="preserve">Extension {http://regenstrief.org/fhir/StructureDefinition/VL-reason}
 </t>
   </si>
   <si>
